--- a/2022/Symphony/January/20.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/20.01.2022/MC Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="251">
   <si>
     <t>Date</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t>bKash Jafor(-)</t>
+  </si>
+  <si>
+    <t>Bariola</t>
+  </si>
+  <si>
+    <t>Hirok</t>
   </si>
 </sst>
 </file>
@@ -3109,6 +3115,9 @@
     <xf numFmtId="1" fontId="32" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3263,9 +3272,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3934,33 +3940,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="312"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="313"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="313"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +3984,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="313"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3996,7 +4002,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="313"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4008,7 +4014,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="313"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>61</v>
       </c>
@@ -4027,7 +4033,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="313"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>62</v>
       </c>
@@ -4046,7 +4052,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>64</v>
       </c>
@@ -4065,7 +4071,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>65</v>
       </c>
@@ -4084,7 +4090,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>66</v>
       </c>
@@ -4103,7 +4109,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>67</v>
       </c>
@@ -4122,7 +4128,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>68</v>
       </c>
@@ -4141,7 +4147,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>69</v>
       </c>
@@ -4160,7 +4166,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>70</v>
       </c>
@@ -4179,7 +4185,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4192,7 +4198,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4205,7 +4211,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4218,7 +4224,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4231,7 +4237,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4244,7 +4250,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4257,7 +4263,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4270,7 +4276,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4283,7 +4289,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4296,7 +4302,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4309,7 +4315,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4322,7 +4328,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4335,7 +4341,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4348,7 +4354,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="313"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4361,7 +4367,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="313"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4374,7 +4380,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="313"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4387,7 +4393,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="313"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4400,7 +4406,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="313"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4413,7 +4419,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="313"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4426,7 +4432,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="313"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4439,7 +4445,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="313"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4452,7 +4458,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="313"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4465,7 +4471,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="313"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4478,7 +4484,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="313"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4491,7 +4497,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="313"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4504,7 +4510,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="313"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4517,7 +4523,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="313"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4530,7 +4536,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="313"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4543,7 +4549,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="313"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4556,7 +4562,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="313"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4569,7 +4575,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="313"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4582,7 +4588,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="313"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4595,7 +4601,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="313"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4608,7 +4614,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="313"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4621,7 +4627,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="313"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4634,7 +4640,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="313"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4647,7 +4653,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="313"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4660,7 +4666,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="313"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4673,7 +4679,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="313"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4686,7 +4692,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="313"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4698,7 +4704,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="313"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4710,7 +4716,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="313"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4722,7 +4728,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="313"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4734,7 +4740,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="313"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4746,7 +4752,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="313"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4758,7 +4764,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="313"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4770,7 +4776,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="313"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4782,7 +4788,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="313"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4794,7 +4800,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="313"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4806,7 +4812,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="313"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4818,7 +4824,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="313"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4830,7 +4836,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="313"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4842,7 +4848,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="313"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4854,7 +4860,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="313"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4866,7 +4872,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="313"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4878,7 +4884,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="313"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4890,7 +4896,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="313"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4902,7 +4908,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="313"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4914,7 +4920,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="313"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4926,7 +4932,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="313"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4938,7 +4944,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="313"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4950,7 +4956,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="313"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4962,7 +4968,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="313"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4974,7 +4980,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="313"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4986,7 +4992,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="313"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4998,7 +5004,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="313"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5010,7 +5016,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="313"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5022,7 +5028,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="313"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5079,33 +5085,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="312"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="A1" s="313"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="313"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="313"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="314"/>
+      <c r="B3" s="312" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="313"/>
+      <c r="A4" s="314"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5129,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="313"/>
+      <c r="A5" s="314"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5141,7 +5147,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="313"/>
+      <c r="A6" s="314"/>
       <c r="B6" s="26"/>
       <c r="C6" s="271"/>
       <c r="D6" s="271"/>
@@ -5153,7 +5159,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="313"/>
+      <c r="A7" s="314"/>
       <c r="B7" s="26" t="s">
         <v>209</v>
       </c>
@@ -5171,7 +5177,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="313"/>
+      <c r="A8" s="314"/>
       <c r="B8" s="26" t="s">
         <v>215</v>
       </c>
@@ -5189,7 +5195,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="313"/>
+      <c r="A9" s="314"/>
       <c r="B9" s="26" t="s">
         <v>217</v>
       </c>
@@ -5207,7 +5213,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="313"/>
+      <c r="A10" s="314"/>
       <c r="B10" s="26" t="s">
         <v>219</v>
       </c>
@@ -5225,7 +5231,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="313"/>
+      <c r="A11" s="314"/>
       <c r="B11" s="26" t="s">
         <v>220</v>
       </c>
@@ -5243,7 +5249,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="313"/>
+      <c r="A12" s="314"/>
       <c r="B12" s="26" t="s">
         <v>220</v>
       </c>
@@ -5261,7 +5267,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="313"/>
+      <c r="A13" s="314"/>
       <c r="B13" s="26" t="s">
         <v>221</v>
       </c>
@@ -5279,7 +5285,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="313"/>
+      <c r="A14" s="314"/>
       <c r="B14" s="26" t="s">
         <v>223</v>
       </c>
@@ -5297,7 +5303,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="313"/>
+      <c r="A15" s="314"/>
       <c r="B15" s="26" t="s">
         <v>224</v>
       </c>
@@ -5315,7 +5321,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="313"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="26" t="s">
         <v>225</v>
       </c>
@@ -5333,7 +5339,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="313"/>
+      <c r="A17" s="314"/>
       <c r="B17" s="26" t="s">
         <v>227</v>
       </c>
@@ -5351,7 +5357,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="313"/>
+      <c r="A18" s="314"/>
       <c r="B18" s="26" t="s">
         <v>228</v>
       </c>
@@ -5369,7 +5375,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="313"/>
+      <c r="A19" s="314"/>
       <c r="B19" s="26" t="s">
         <v>229</v>
       </c>
@@ -5387,7 +5393,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="313"/>
+      <c r="A20" s="314"/>
       <c r="B20" s="26" t="s">
         <v>233</v>
       </c>
@@ -5405,7 +5411,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="313"/>
+      <c r="A21" s="314"/>
       <c r="B21" s="26" t="s">
         <v>236</v>
       </c>
@@ -5423,7 +5429,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="313"/>
+      <c r="A22" s="314"/>
       <c r="B22" s="26" t="s">
         <v>239</v>
       </c>
@@ -5441,7 +5447,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="313"/>
+      <c r="A23" s="314"/>
       <c r="B23" s="26" t="s">
         <v>240</v>
       </c>
@@ -5459,7 +5465,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="313"/>
+      <c r="A24" s="314"/>
       <c r="B24" s="26" t="s">
         <v>244</v>
       </c>
@@ -5477,7 +5483,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="313"/>
+      <c r="A25" s="314"/>
       <c r="B25" s="26"/>
       <c r="C25" s="271"/>
       <c r="D25" s="271"/>
@@ -5489,7 +5495,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="313"/>
+      <c r="A26" s="314"/>
       <c r="B26" s="26"/>
       <c r="C26" s="271"/>
       <c r="D26" s="271"/>
@@ -5501,7 +5507,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="313"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="26"/>
       <c r="C27" s="271"/>
       <c r="D27" s="271"/>
@@ -5513,7 +5519,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="313"/>
+      <c r="A28" s="314"/>
       <c r="B28" s="26"/>
       <c r="C28" s="271"/>
       <c r="D28" s="271"/>
@@ -5525,7 +5531,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="313"/>
+      <c r="A29" s="314"/>
       <c r="B29" s="26"/>
       <c r="C29" s="271"/>
       <c r="D29" s="271"/>
@@ -5537,7 +5543,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="313"/>
+      <c r="A30" s="314"/>
       <c r="B30" s="26"/>
       <c r="C30" s="271"/>
       <c r="D30" s="271"/>
@@ -5549,7 +5555,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="313"/>
+      <c r="A31" s="314"/>
       <c r="B31" s="26"/>
       <c r="C31" s="271"/>
       <c r="D31" s="271"/>
@@ -5561,7 +5567,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="313"/>
+      <c r="A32" s="314"/>
       <c r="B32" s="26"/>
       <c r="C32" s="271"/>
       <c r="D32" s="271"/>
@@ -5573,7 +5579,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="313"/>
+      <c r="A33" s="314"/>
       <c r="B33" s="26"/>
       <c r="C33" s="271"/>
       <c r="D33" s="274"/>
@@ -5585,7 +5591,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="313"/>
+      <c r="A34" s="314"/>
       <c r="B34" s="26"/>
       <c r="C34" s="271"/>
       <c r="D34" s="271"/>
@@ -5597,7 +5603,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="313"/>
+      <c r="A35" s="314"/>
       <c r="B35" s="26"/>
       <c r="C35" s="271"/>
       <c r="D35" s="271"/>
@@ -5609,7 +5615,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="313"/>
+      <c r="A36" s="314"/>
       <c r="B36" s="26"/>
       <c r="C36" s="271"/>
       <c r="D36" s="271"/>
@@ -5621,7 +5627,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="313"/>
+      <c r="A37" s="314"/>
       <c r="B37" s="26"/>
       <c r="C37" s="271"/>
       <c r="D37" s="271"/>
@@ -5633,7 +5639,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="313"/>
+      <c r="A38" s="314"/>
       <c r="B38" s="26"/>
       <c r="C38" s="271"/>
       <c r="D38" s="271"/>
@@ -5645,7 +5651,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="313"/>
+      <c r="A39" s="314"/>
       <c r="B39" s="26"/>
       <c r="C39" s="271"/>
       <c r="D39" s="271"/>
@@ -5657,7 +5663,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="313"/>
+      <c r="A40" s="314"/>
       <c r="B40" s="26"/>
       <c r="C40" s="271"/>
       <c r="D40" s="271"/>
@@ -5669,7 +5675,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="313"/>
+      <c r="A41" s="314"/>
       <c r="B41" s="26"/>
       <c r="C41" s="271"/>
       <c r="D41" s="271"/>
@@ -5681,7 +5687,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="313"/>
+      <c r="A42" s="314"/>
       <c r="B42" s="26"/>
       <c r="C42" s="271"/>
       <c r="D42" s="271"/>
@@ -5693,7 +5699,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="313"/>
+      <c r="A43" s="314"/>
       <c r="B43" s="26"/>
       <c r="C43" s="271"/>
       <c r="D43" s="271"/>
@@ -5705,7 +5711,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="313"/>
+      <c r="A44" s="314"/>
       <c r="B44" s="26"/>
       <c r="C44" s="271"/>
       <c r="D44" s="271"/>
@@ -5717,7 +5723,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="313"/>
+      <c r="A45" s="314"/>
       <c r="B45" s="26"/>
       <c r="C45" s="271"/>
       <c r="D45" s="271"/>
@@ -5729,7 +5735,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="313"/>
+      <c r="A46" s="314"/>
       <c r="B46" s="26"/>
       <c r="C46" s="271"/>
       <c r="D46" s="271"/>
@@ -5741,7 +5747,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="313"/>
+      <c r="A47" s="314"/>
       <c r="B47" s="26"/>
       <c r="C47" s="271"/>
       <c r="D47" s="271"/>
@@ -5753,7 +5759,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="313"/>
+      <c r="A48" s="314"/>
       <c r="B48" s="26"/>
       <c r="C48" s="271"/>
       <c r="D48" s="271"/>
@@ -5765,7 +5771,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="313"/>
+      <c r="A49" s="314"/>
       <c r="B49" s="26"/>
       <c r="C49" s="271"/>
       <c r="D49" s="271"/>
@@ -5777,7 +5783,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="313"/>
+      <c r="A50" s="314"/>
       <c r="B50" s="26"/>
       <c r="C50" s="271"/>
       <c r="D50" s="271"/>
@@ -5789,7 +5795,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="313"/>
+      <c r="A51" s="314"/>
       <c r="B51" s="26"/>
       <c r="C51" s="271"/>
       <c r="D51" s="271"/>
@@ -5801,7 +5807,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="313"/>
+      <c r="A52" s="314"/>
       <c r="B52" s="26"/>
       <c r="C52" s="271"/>
       <c r="D52" s="271"/>
@@ -5813,7 +5819,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="313"/>
+      <c r="A53" s="314"/>
       <c r="B53" s="26"/>
       <c r="C53" s="271"/>
       <c r="D53" s="271"/>
@@ -5825,7 +5831,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="313"/>
+      <c r="A54" s="314"/>
       <c r="B54" s="26"/>
       <c r="C54" s="271"/>
       <c r="D54" s="271"/>
@@ -5837,7 +5843,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="313"/>
+      <c r="A55" s="314"/>
       <c r="B55" s="26"/>
       <c r="C55" s="271"/>
       <c r="D55" s="271"/>
@@ -5848,7 +5854,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="313"/>
+      <c r="A56" s="314"/>
       <c r="B56" s="26"/>
       <c r="C56" s="271"/>
       <c r="D56" s="271"/>
@@ -5859,7 +5865,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="313"/>
+      <c r="A57" s="314"/>
       <c r="B57" s="26"/>
       <c r="C57" s="271"/>
       <c r="D57" s="271"/>
@@ -5870,7 +5876,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="313"/>
+      <c r="A58" s="314"/>
       <c r="B58" s="26"/>
       <c r="C58" s="271"/>
       <c r="D58" s="271"/>
@@ -5881,7 +5887,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="313"/>
+      <c r="A59" s="314"/>
       <c r="B59" s="26"/>
       <c r="C59" s="271"/>
       <c r="D59" s="271"/>
@@ -5892,7 +5898,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="313"/>
+      <c r="A60" s="314"/>
       <c r="B60" s="26"/>
       <c r="C60" s="271"/>
       <c r="D60" s="271"/>
@@ -5903,7 +5909,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="313"/>
+      <c r="A61" s="314"/>
       <c r="B61" s="26"/>
       <c r="C61" s="271"/>
       <c r="D61" s="271"/>
@@ -5914,7 +5920,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="313"/>
+      <c r="A62" s="314"/>
       <c r="B62" s="26"/>
       <c r="C62" s="271"/>
       <c r="D62" s="271"/>
@@ -5925,7 +5931,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="313"/>
+      <c r="A63" s="314"/>
       <c r="B63" s="26"/>
       <c r="C63" s="271"/>
       <c r="D63" s="271"/>
@@ -5936,7 +5942,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="313"/>
+      <c r="A64" s="314"/>
       <c r="B64" s="26"/>
       <c r="C64" s="271"/>
       <c r="D64" s="271"/>
@@ -5947,7 +5953,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="313"/>
+      <c r="A65" s="314"/>
       <c r="B65" s="26"/>
       <c r="C65" s="271"/>
       <c r="D65" s="271"/>
@@ -5958,7 +5964,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="313"/>
+      <c r="A66" s="314"/>
       <c r="B66" s="26"/>
       <c r="C66" s="271"/>
       <c r="D66" s="271"/>
@@ -5969,7 +5975,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="313"/>
+      <c r="A67" s="314"/>
       <c r="B67" s="26"/>
       <c r="C67" s="271"/>
       <c r="D67" s="271"/>
@@ -5980,7 +5986,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="313"/>
+      <c r="A68" s="314"/>
       <c r="B68" s="26"/>
       <c r="C68" s="271"/>
       <c r="D68" s="271"/>
@@ -5991,7 +5997,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="313"/>
+      <c r="A69" s="314"/>
       <c r="B69" s="26"/>
       <c r="C69" s="271"/>
       <c r="D69" s="271"/>
@@ -6002,7 +6008,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="313"/>
+      <c r="A70" s="314"/>
       <c r="B70" s="26"/>
       <c r="C70" s="271"/>
       <c r="D70" s="271"/>
@@ -6013,7 +6019,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="313"/>
+      <c r="A71" s="314"/>
       <c r="B71" s="26"/>
       <c r="C71" s="271"/>
       <c r="D71" s="271"/>
@@ -6024,7 +6030,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="313"/>
+      <c r="A72" s="314"/>
       <c r="B72" s="26"/>
       <c r="C72" s="271"/>
       <c r="D72" s="271"/>
@@ -6035,7 +6041,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="313"/>
+      <c r="A73" s="314"/>
       <c r="B73" s="26"/>
       <c r="C73" s="271"/>
       <c r="D73" s="271"/>
@@ -6046,7 +6052,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="313"/>
+      <c r="A74" s="314"/>
       <c r="B74" s="26"/>
       <c r="C74" s="271"/>
       <c r="D74" s="271"/>
@@ -6057,7 +6063,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="313"/>
+      <c r="A75" s="314"/>
       <c r="B75" s="26"/>
       <c r="C75" s="271"/>
       <c r="D75" s="271"/>
@@ -6068,7 +6074,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="313"/>
+      <c r="A76" s="314"/>
       <c r="B76" s="26"/>
       <c r="C76" s="271"/>
       <c r="D76" s="271"/>
@@ -6079,7 +6085,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="313"/>
+      <c r="A77" s="314"/>
       <c r="B77" s="26"/>
       <c r="C77" s="271"/>
       <c r="D77" s="271"/>
@@ -6090,7 +6096,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="313"/>
+      <c r="A78" s="314"/>
       <c r="B78" s="26"/>
       <c r="C78" s="271"/>
       <c r="D78" s="271"/>
@@ -6101,7 +6107,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="313"/>
+      <c r="A79" s="314"/>
       <c r="B79" s="26"/>
       <c r="C79" s="271"/>
       <c r="D79" s="271"/>
@@ -6113,7 +6119,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="313"/>
+      <c r="A80" s="314"/>
       <c r="B80" s="26"/>
       <c r="C80" s="271"/>
       <c r="D80" s="271"/>
@@ -6125,7 +6131,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="313"/>
+      <c r="A81" s="314"/>
       <c r="B81" s="26"/>
       <c r="C81" s="271"/>
       <c r="D81" s="271"/>
@@ -6137,7 +6143,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="313"/>
+      <c r="A82" s="314"/>
       <c r="B82" s="26"/>
       <c r="C82" s="271"/>
       <c r="D82" s="271"/>
@@ -6149,7 +6155,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="313"/>
+      <c r="A83" s="314"/>
       <c r="B83" s="31"/>
       <c r="C83" s="273">
         <f>SUM(C5:C72)</f>
@@ -6202,67 +6208,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="320" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="319"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="321" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
-      <c r="N3" s="321"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="322"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6271,52 +6277,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="314" t="s">
+      <c r="C4" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="314" t="s">
+      <c r="F4" s="315" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="314" t="s">
+      <c r="G4" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="314" t="s">
+      <c r="H4" s="315" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="314" t="s">
+      <c r="I4" s="315" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="314" t="s">
+      <c r="K4" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="314" t="s">
+      <c r="L4" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="314" t="s">
+      <c r="M4" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="314" t="s">
+      <c r="N4" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="316" t="s">
+      <c r="O4" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="327" t="s">
+      <c r="P4" s="328" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6329,22 +6335,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="324"/>
-      <c r="B5" s="326"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="315"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="328"/>
+      <c r="A5" s="325"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="329"/>
       <c r="Q5" s="136" t="s">
         <v>48</v>
       </c>
@@ -9449,11 +9455,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9468,6 +9469,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9481,8 +9487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9509,14 +9515,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="335"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="336"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9610,14 +9616,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="337" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="338"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="339"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9711,14 +9717,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="340" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="341"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -11836,14 +11842,14 @@
         <v>509670</v>
       </c>
       <c r="C22" s="58">
-        <v>546530</v>
+        <v>526530</v>
       </c>
       <c r="D22" s="55">
         <v>950</v>
       </c>
       <c r="E22" s="55">
         <f t="shared" si="1"/>
-        <v>547480</v>
+        <v>527480</v>
       </c>
       <c r="F22" s="243"/>
       <c r="G22" s="255">
@@ -12970,7 +12976,7 @@
       </c>
       <c r="C33" s="279">
         <f>SUM(C5:C32)</f>
-        <v>7288350</v>
+        <v>7268350</v>
       </c>
       <c r="D33" s="278">
         <f>SUM(D5:D32)</f>
@@ -12978,11 +12984,11 @@
       </c>
       <c r="E33" s="278">
         <f>SUM(E5:E32)</f>
-        <v>7326170</v>
+        <v>7306170</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>293530</v>
+        <v>313530</v>
       </c>
       <c r="G33" s="280"/>
       <c r="H33" s="148"/>
@@ -13177,12 +13183,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="331" t="s">
+      <c r="B35" s="332" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="331"/>
-      <c r="E35" s="331"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -14061,10 +14067,10 @@
         <v>239</v>
       </c>
       <c r="F43" s="143"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -22042,11 +22048,19 @@
       <c r="CS113" s="147"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="238"/>
-      <c r="B114" s="60"/>
+      <c r="A114" s="238" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>250</v>
+      </c>
       <c r="C114" s="125"/>
-      <c r="D114" s="221"/>
-      <c r="E114" s="189"/>
+      <c r="D114" s="221">
+        <v>20000</v>
+      </c>
+      <c r="E114" s="189" t="s">
+        <v>244</v>
+      </c>
       <c r="F114" s="147"/>
       <c r="G114" s="147"/>
       <c r="H114" s="197"/>
@@ -22592,14 +22606,14 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="329" t="s">
+      <c r="A119" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="330"/>
-      <c r="C119" s="342"/>
+      <c r="B119" s="331"/>
+      <c r="C119" s="343"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2457431</v>
+        <v>2477431</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22799,14 +22813,14 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="329" t="s">
+      <c r="A121" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="330"/>
-      <c r="C121" s="330"/>
+      <c r="B121" s="331"/>
+      <c r="C121" s="331"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2457431</v>
+        <v>2477431</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -34038,8 +34052,8 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34056,35 +34070,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="348"/>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="349"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="356" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="357"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="358"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="351"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="352"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34107,15 +34121,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="359" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="359"/>
+      <c r="B4" s="360"/>
       <c r="C4" s="289"/>
-      <c r="D4" s="360" t="s">
+      <c r="D4" s="361" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="361"/>
+      <c r="E4" s="362"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -34215,7 +34229,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="303">
-        <v>37255.009000000544</v>
+        <v>17255.009000000544</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="283"/>
@@ -34304,7 +34318,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="259">
-        <v>2457431</v>
+        <v>2477431</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="249"/>
@@ -34429,7 +34443,7 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="362" t="s">
+      <c r="A14" s="310" t="s">
         <v>248</v>
       </c>
       <c r="B14" s="264">
@@ -34529,13 +34543,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="22.5">
-      <c r="A17" s="352" t="s">
+      <c r="A17" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="353"/>
-      <c r="C17" s="353"/>
-      <c r="D17" s="353"/>
-      <c r="E17" s="354"/>
+      <c r="B17" s="354"/>
+      <c r="C17" s="354"/>
+      <c r="D17" s="354"/>
+      <c r="E17" s="355"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -34862,11 +34876,11 @@
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="1:25" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A27" s="343"/>
-      <c r="B27" s="344"/>
-      <c r="C27" s="344"/>
-      <c r="D27" s="344"/>
-      <c r="E27" s="345"/>
+      <c r="A27" s="344"/>
+      <c r="B27" s="345"/>
+      <c r="C27" s="345"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="346"/>
       <c r="G27" s="16"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
